--- a/dis_model.xlsx
+++ b/dis_model.xlsx
@@ -522,22 +522,22 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>11.57389804402606</v>
+        <v>11.61260368958969</v>
       </c>
       <c r="D2">
-        <v>0.04507965374644378</v>
+        <v>0.04250394951438174</v>
       </c>
       <c r="E2">
-        <v>256.7432773358224</v>
+        <v>273.2123443178008</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>11.48542254615283</v>
+        <v>11.52918339279648</v>
       </c>
       <c r="H2">
-        <v>11.66237354189929</v>
+        <v>11.6960239863829</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -548,22 +548,22 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.1066556259052317</v>
+        <v>-0.1068663278366113</v>
       </c>
       <c r="D3">
-        <v>0.01213666411511897</v>
+        <v>0.01167522650428014</v>
       </c>
       <c r="E3">
-        <v>-8.787886431854686</v>
+        <v>-9.153255210717676</v>
       </c>
       <c r="F3">
-        <v>7.811888321013099E-18</v>
+        <v>3.7342706572684E-19</v>
       </c>
       <c r="G3">
-        <v>-0.1304756269670199</v>
+        <v>-0.1297806892369675</v>
       </c>
       <c r="H3">
-        <v>-0.08283562484344349</v>
+        <v>-0.08395196643625506</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -574,22 +574,22 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.02826705140175997</v>
+        <v>-0.04802493060300515</v>
       </c>
       <c r="D4">
-        <v>0.03589215816579992</v>
+        <v>0.03452699751064092</v>
       </c>
       <c r="E4">
-        <v>-0.7875550773844082</v>
+        <v>-1.390938513787777</v>
       </c>
       <c r="F4">
-        <v>0.4311678685797878</v>
+        <v>0.1645936742278324</v>
       </c>
       <c r="G4">
-        <v>-0.09871072830587629</v>
+        <v>-0.1157892775077941</v>
       </c>
       <c r="H4">
-        <v>0.04217662550235635</v>
+        <v>0.01973941630178377</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -600,22 +600,22 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.06250175781972461</v>
+        <v>-0.0870041181251226</v>
       </c>
       <c r="D5">
-        <v>0.0492779942626755</v>
+        <v>0.04740692265037461</v>
       </c>
       <c r="E5">
-        <v>-1.26835027997609</v>
+        <v>-1.835261882885265</v>
       </c>
       <c r="F5">
-        <v>0.2050064258799572</v>
+        <v>0.06680233612724114</v>
       </c>
       <c r="G5">
-        <v>-0.1592171208326538</v>
+        <v>-0.1800472259475857</v>
       </c>
       <c r="H5">
-        <v>0.03421360519320461</v>
+        <v>0.006038989697340541</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -626,22 +626,22 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>-0.4660209343477763</v>
+        <v>-0.468557947899672</v>
       </c>
       <c r="D6">
-        <v>0.01793134540129178</v>
+        <v>0.0172771667856868</v>
       </c>
       <c r="E6">
-        <v>-25.98917838670399</v>
+        <v>-27.12006856864096</v>
       </c>
       <c r="F6">
-        <v>4.172776093639682E-111</v>
+        <v>2.250164363458681E-118</v>
       </c>
       <c r="G6">
-        <v>-0.501213855767261</v>
+        <v>-0.5024669468862289</v>
       </c>
       <c r="H6">
-        <v>-0.4308280129282916</v>
+        <v>-0.4346489489131151</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -652,22 +652,22 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>-0.1775419995451727</v>
+        <v>-0.1826326294594487</v>
       </c>
       <c r="D7">
-        <v>0.01751723666560902</v>
+        <v>0.01688228974400432</v>
       </c>
       <c r="E7">
-        <v>-10.13527435487212</v>
+        <v>-10.8180011259616</v>
       </c>
       <c r="F7">
-        <v>6.484706400076841E-23</v>
+        <v>1.05645752763857E-25</v>
       </c>
       <c r="G7">
-        <v>-0.2119221712312795</v>
+        <v>-0.2157666237607861</v>
       </c>
       <c r="H7">
-        <v>-0.1431618278590659</v>
+        <v>-0.1494986351581112</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -678,22 +678,22 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>0.1706589622229417</v>
+        <v>0.1655723347394298</v>
       </c>
       <c r="D8">
-        <v>0.01869542818822975</v>
+        <v>0.01801130028429716</v>
       </c>
       <c r="E8">
-        <v>9.128379436122517</v>
+        <v>9.192691928176956</v>
       </c>
       <c r="F8">
-        <v>4.607782566532904E-19</v>
+        <v>2.673475524549945E-19</v>
       </c>
       <c r="G8">
-        <v>0.133966415154801</v>
+        <v>0.1302224900187795</v>
       </c>
       <c r="H8">
-        <v>0.2073515092910824</v>
+        <v>0.2009221794600801</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -704,22 +704,22 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>0.3460848794459466</v>
+        <v>0.3327388992973054</v>
       </c>
       <c r="D9">
-        <v>0.01892640076844182</v>
+        <v>0.01822927010726626</v>
       </c>
       <c r="E9">
-        <v>18.28582643262072</v>
+        <v>18.25300175703</v>
       </c>
       <c r="F9">
-        <v>1.303828311396349E-63</v>
+        <v>2.017898405076415E-63</v>
       </c>
       <c r="G9">
-        <v>0.308939014476469</v>
+        <v>0.296961256512433</v>
       </c>
       <c r="H9">
-        <v>0.3832307444154241</v>
+        <v>0.3685165420821778</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -730,22 +730,22 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>-0.004446719843545416</v>
+        <v>0.0129044238839188</v>
       </c>
       <c r="D10">
-        <v>0.01811572442891308</v>
+        <v>0.01741155389458637</v>
       </c>
       <c r="E10">
-        <v>-0.245461883735014</v>
+        <v>0.7411414260924215</v>
       </c>
       <c r="F10">
-        <v>0.8061557270286634</v>
+        <v>0.4588042999443537</v>
       </c>
       <c r="G10">
-        <v>-0.04000151241576631</v>
+        <v>-0.02126832970986096</v>
       </c>
       <c r="H10">
-        <v>0.03110807272867547</v>
+        <v>0.04707717747769856</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -756,22 +756,22 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>0.007302827488936847</v>
+        <v>0.02565365561956511</v>
       </c>
       <c r="D11">
-        <v>0.01841243524636105</v>
+        <v>0.01772248699316997</v>
       </c>
       <c r="E11">
-        <v>0.396624747961036</v>
+        <v>1.447520070374531</v>
       </c>
       <c r="F11">
-        <v>0.691739817542135</v>
+        <v>0.1481054509071895</v>
       </c>
       <c r="G11">
-        <v>-0.02883430401263204</v>
+        <v>-0.009129350236957913</v>
       </c>
       <c r="H11">
-        <v>0.04343995899050573</v>
+        <v>0.06043666147608814</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -782,22 +782,22 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>0.04544613130721653</v>
+        <v>0.0469882581401617</v>
       </c>
       <c r="D12">
-        <v>0.01825091650664581</v>
+        <v>0.01750089526785623</v>
       </c>
       <c r="E12">
-        <v>2.490073925365226</v>
+        <v>2.68490596743726</v>
       </c>
       <c r="F12">
-        <v>0.01295415186710033</v>
+        <v>0.007390720452879381</v>
       </c>
       <c r="G12">
-        <v>0.009626004257202246</v>
+        <v>0.01264015886770418</v>
       </c>
       <c r="H12">
-        <v>0.08126625835723081</v>
+        <v>0.08133635741261921</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -808,22 +808,22 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>0.01979753703663528</v>
+        <v>0.03489466935012281</v>
       </c>
       <c r="D13">
-        <v>0.01780850833969509</v>
+        <v>0.01713132538299481</v>
       </c>
       <c r="E13">
-        <v>1.11168979787637</v>
+        <v>2.036892567854706</v>
       </c>
       <c r="F13">
-        <v>0.2665734537152775</v>
+        <v>0.04195795509743712</v>
       </c>
       <c r="G13">
-        <v>-0.01515429845430206</v>
+        <v>0.001271905719016489</v>
       </c>
       <c r="H13">
-        <v>0.05474937252757262</v>
+        <v>0.06851743298122913</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -834,22 +834,22 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>-0.08713166264558293</v>
+        <v>-0.09294559155136201</v>
       </c>
       <c r="D14">
-        <v>0.07123053340578861</v>
+        <v>0.06861871645074823</v>
       </c>
       <c r="E14">
-        <v>-1.223234734874274</v>
+        <v>-1.354522444588054</v>
       </c>
       <c r="F14">
-        <v>0.2215666568452722</v>
+        <v>0.1759154612992751</v>
       </c>
       <c r="G14">
-        <v>-0.2269321354331576</v>
+        <v>-0.2276199866908985</v>
       </c>
       <c r="H14">
-        <v>0.05266881014199172</v>
+        <v>0.04172880358817449</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -860,22 +860,22 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>-0.02319768389348405</v>
+        <v>-0.02795822549496814</v>
       </c>
       <c r="D15">
-        <v>0.04596432952298019</v>
+        <v>0.04401812722176658</v>
       </c>
       <c r="E15">
-        <v>-0.5046888344555577</v>
+        <v>-0.6351525441805493</v>
       </c>
       <c r="F15">
-        <v>0.6139030416936393</v>
+        <v>0.5254931081058811</v>
       </c>
       <c r="G15">
-        <v>-0.1134094890202207</v>
+        <v>-0.1143503203255607</v>
       </c>
       <c r="H15">
-        <v>0.06701412123325258</v>
+        <v>0.05843386933562439</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -886,22 +886,22 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>-0.01340993042911374</v>
+        <v>-0.009708464917104372</v>
       </c>
       <c r="D16">
-        <v>0.04340871234634348</v>
+        <v>0.04148534311961729</v>
       </c>
       <c r="E16">
-        <v>-0.3089225573456414</v>
+        <v>-0.2340215648960971</v>
       </c>
       <c r="F16">
-        <v>0.7574531453868714</v>
+        <v>0.8150223614279388</v>
       </c>
       <c r="G16">
-        <v>-0.09860595829748685</v>
+        <v>-0.09112959578014995</v>
       </c>
       <c r="H16">
-        <v>0.07178609743925936</v>
+        <v>0.07171266594594122</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -912,22 +912,22 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>0.001315621099709601</v>
+        <v>0.01084301794400373</v>
       </c>
       <c r="D17">
-        <v>0.0213845837986547</v>
+        <v>0.02056277004545776</v>
       </c>
       <c r="E17">
-        <v>0.06152194085686936</v>
+        <v>0.5273130964375545</v>
       </c>
       <c r="F17">
-        <v>0.9509574319206825</v>
+        <v>0.5981083406654331</v>
       </c>
       <c r="G17">
-        <v>-0.04065479218340202</v>
+        <v>-0.02951446411780489</v>
       </c>
       <c r="H17">
-        <v>0.04328603438282122</v>
+        <v>0.05120050000581235</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -938,22 +938,22 @@
         <v>23</v>
       </c>
       <c r="C18">
-        <v>-0.0639339787520963</v>
+        <v>-0.06498736605638671</v>
       </c>
       <c r="D18">
-        <v>0.07532239394686681</v>
+        <v>0.07245785496961739</v>
       </c>
       <c r="E18">
-        <v>-0.8488043913898434</v>
+        <v>-0.8968988397964145</v>
       </c>
       <c r="F18">
-        <v>0.3962196738827167</v>
+        <v>0.3700168079244094</v>
       </c>
       <c r="G18">
-        <v>-0.2117653339558493</v>
+        <v>-0.207196639209223</v>
       </c>
       <c r="H18">
-        <v>0.08389737645165671</v>
+        <v>0.07722190709644965</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -964,22 +964,22 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>-0.3010573496734971</v>
+        <v>-0.2694894936026518</v>
       </c>
       <c r="D19">
-        <v>0.2013789319405021</v>
+        <v>0.1937612790265176</v>
       </c>
       <c r="E19">
-        <v>-1.494979374319282</v>
+        <v>-1.390832548982969</v>
       </c>
       <c r="F19">
-        <v>0.135276297813438</v>
+        <v>0.1646258018378033</v>
       </c>
       <c r="G19">
-        <v>-0.6962933327365012</v>
+        <v>-0.6497747044618338</v>
       </c>
       <c r="H19">
-        <v>0.09417863338950694</v>
+        <v>0.1107957172565303</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -990,22 +990,22 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>-0.06427308807355728</v>
+        <v>-0.01258219199560887</v>
       </c>
       <c r="D20">
-        <v>0.02227053549889732</v>
+        <v>0.02144074276125131</v>
       </c>
       <c r="E20">
-        <v>-2.88601448657306</v>
+        <v>-0.5868356397777401</v>
       </c>
       <c r="F20">
-        <v>0.003996397776674821</v>
+        <v>0.5574637600303601</v>
       </c>
       <c r="G20">
-        <v>-0.1079823127994428</v>
+        <v>-0.05466282556132795</v>
       </c>
       <c r="H20">
-        <v>-0.02056386334767175</v>
+        <v>0.02949844157011022</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1016,22 +1016,22 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>-0.06254012411990473</v>
+        <v>0.0315936306883336</v>
       </c>
       <c r="D21">
-        <v>0.02167671692356911</v>
+        <v>0.02078022592144995</v>
       </c>
       <c r="E21">
-        <v>-2.885128976884171</v>
+        <v>1.520369932827426</v>
       </c>
       <c r="F21">
-        <v>0.00400754966092007</v>
+        <v>0.1287752015265597</v>
       </c>
       <c r="G21">
-        <v>-0.1050838919326993</v>
+        <v>-0.009190640740626844</v>
       </c>
       <c r="H21">
-        <v>-0.0199963563071101</v>
+        <v>0.07237790211729406</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1042,22 +1042,22 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>0.0001413464189845889</v>
+        <v>-0.01316119509432882</v>
       </c>
       <c r="D22">
-        <v>0.01810643135999771</v>
+        <v>0.01742339200228819</v>
       </c>
       <c r="E22">
-        <v>0.007806420612339082</v>
+        <v>-0.7553750206963361</v>
       </c>
       <c r="F22">
-        <v>0.9937732000825565</v>
+        <v>0.450224980821133</v>
       </c>
       <c r="G22">
-        <v>-0.03539520712895979</v>
+        <v>-0.04735718272798579</v>
       </c>
       <c r="H22">
-        <v>0.03567789996692897</v>
+        <v>0.02103479253932814</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1068,22 +1068,22 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>0.03256870856497427</v>
+        <v>0.03541967514512121</v>
       </c>
       <c r="D23">
-        <v>0.03438752773864176</v>
+        <v>0.03315629429027034</v>
       </c>
       <c r="E23">
-        <v>0.9471081728383848</v>
+        <v>1.068263987375545</v>
       </c>
       <c r="F23">
-        <v>0.3438421868425988</v>
+        <v>0.2856927457677853</v>
       </c>
       <c r="G23">
-        <v>-0.03492190825339255</v>
+        <v>-0.0296544636551235</v>
       </c>
       <c r="H23">
-        <v>0.1000593253833411</v>
+        <v>0.1004938139453659</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1094,22 +1094,22 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>-0.4411317080467954</v>
+        <v>-0.4145750880016739</v>
       </c>
       <c r="D24">
-        <v>0.2013572825008116</v>
+        <v>0.1935145026355204</v>
       </c>
       <c r="E24">
-        <v>-2.190790929277749</v>
+        <v>-2.142346347976385</v>
       </c>
       <c r="F24">
-        <v>0.02872707582616717</v>
+        <v>0.03243789607323951</v>
       </c>
       <c r="G24">
-        <v>-0.836325200877597</v>
+        <v>-0.7943759636399237</v>
       </c>
       <c r="H24">
-        <v>-0.04593821521599367</v>
+        <v>-0.03477421236342404</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1120,22 +1120,22 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>0.08476530763985252</v>
+        <v>0.04795059174073463</v>
       </c>
       <c r="D25">
-        <v>0.04326005483653547</v>
+        <v>0.04151338308506358</v>
       </c>
       <c r="E25">
-        <v>1.959435972981329</v>
+        <v>1.155063456102356</v>
       </c>
       <c r="F25">
-        <v>0.05037531975362387</v>
+        <v>0.2483762102828491</v>
       </c>
       <c r="G25">
-        <v>-0.0001389578457206553</v>
+        <v>-0.03352557170790185</v>
       </c>
       <c r="H25">
-        <v>0.1696695731254257</v>
+        <v>0.1294267551893711</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1146,22 +1146,22 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>0.006238747218462036</v>
+        <v>0.01163781714577029</v>
       </c>
       <c r="D26">
-        <v>0.02007691102391133</v>
+        <v>0.01930408159361601</v>
       </c>
       <c r="E26">
-        <v>0.3107423851722893</v>
+        <v>0.6028682115402469</v>
       </c>
       <c r="F26">
-        <v>0.7560696430307267</v>
+        <v>0.546750816195629</v>
       </c>
       <c r="G26">
-        <v>-0.03316516454599458</v>
+        <v>-0.0262493023868503</v>
       </c>
       <c r="H26">
-        <v>0.04564265898291865</v>
+        <v>0.04952493667839087</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1172,22 +1172,22 @@
         <v>32</v>
       </c>
       <c r="C27">
-        <v>-0.02468518495718516</v>
+        <v>-0.01189157064393176</v>
       </c>
       <c r="D27">
-        <v>0.02475025433786852</v>
+        <v>0.02380161855839573</v>
       </c>
       <c r="E27">
-        <v>-0.9973709611305368</v>
+        <v>-0.4996118484445317</v>
       </c>
       <c r="F27">
-        <v>0.3188570977865191</v>
+        <v>0.6174725975351696</v>
       </c>
       <c r="G27">
-        <v>-0.07326122521137132</v>
+        <v>-0.05860577266481434</v>
       </c>
       <c r="H27">
-        <v>0.023890855297001</v>
+        <v>0.03482263137695082</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1198,22 +1198,22 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>0.01038815281852187</v>
+        <v>0.03012174051157027</v>
       </c>
       <c r="D28">
-        <v>0.02765466420770451</v>
+        <v>0.02659375815076035</v>
       </c>
       <c r="E28">
-        <v>0.3756383639483051</v>
+        <v>1.132662045763135</v>
       </c>
       <c r="F28">
-        <v>0.7072757823814447</v>
+        <v>0.2576629731353143</v>
       </c>
       <c r="G28">
-        <v>-0.04388822201913341</v>
+        <v>-0.02207244904327845</v>
       </c>
       <c r="H28">
-        <v>0.06466452765617715</v>
+        <v>0.08231593006641899</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1224,22 +1224,22 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>-0.0007435822649333249</v>
+        <v>0.02847922183899273</v>
       </c>
       <c r="D29">
-        <v>0.03123481829690567</v>
+        <v>0.03010200668909187</v>
       </c>
       <c r="E29">
-        <v>-0.02380619787396007</v>
+        <v>0.9460904760649332</v>
       </c>
       <c r="F29">
-        <v>0.9810125627291334</v>
+        <v>0.3443606759264114</v>
       </c>
       <c r="G29">
-        <v>-0.06204653981075652</v>
+        <v>-0.03060042512947696</v>
       </c>
       <c r="H29">
-        <v>0.06055937528088987</v>
+        <v>0.08755886880746241</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1250,22 +1250,22 @@
         <v>35</v>
       </c>
       <c r="C30">
-        <v>0.2015204414078897</v>
+        <v>0.1046560361465026</v>
       </c>
       <c r="D30">
-        <v>0.1054191614967459</v>
+        <v>0.1014475205064922</v>
       </c>
       <c r="E30">
-        <v>1.91161112028111</v>
+        <v>1.031627344108475</v>
       </c>
       <c r="F30">
-        <v>0.05624880248664894</v>
+        <v>0.3025285625120444</v>
       </c>
       <c r="G30">
-        <v>-0.005380278177583742</v>
+        <v>-0.09444974969873211</v>
       </c>
       <c r="H30">
-        <v>0.4084211609933632</v>
+        <v>0.3037618219917373</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1276,22 +1276,22 @@
         <v>36</v>
       </c>
       <c r="C31">
-        <v>-0.0002348826233598996</v>
+        <v>-0.0008131036012209102</v>
       </c>
       <c r="D31">
-        <v>0.0003968188840776608</v>
+        <v>0.0003774747046634899</v>
       </c>
       <c r="E31">
-        <v>-0.5919139254318629</v>
+        <v>-2.154061162709627</v>
       </c>
       <c r="F31">
-        <v>0.554059404183413</v>
+        <v>0.03150475056709354</v>
       </c>
       <c r="G31">
-        <v>-0.001013698461914135</v>
+        <v>-0.001553953622330221</v>
       </c>
       <c r="H31">
-        <v>0.0005439332151943361</v>
+        <v>-7.225358011159883E-05</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1302,22 +1302,22 @@
         <v>37</v>
       </c>
       <c r="C32">
-        <v>0.000470513975780205</v>
+        <v>0.0001711349591420369</v>
       </c>
       <c r="D32">
-        <v>0.0006670509155302993</v>
+        <v>0.0006417331251556005</v>
       </c>
       <c r="E32">
-        <v>0.7053644104605579</v>
+        <v>0.2666762123282042</v>
       </c>
       <c r="F32">
-        <v>0.4807690936165021</v>
+        <v>0.7897805933264919</v>
       </c>
       <c r="G32">
-        <v>-0.0008386722524523918</v>
+        <v>-0.00108836135529817</v>
       </c>
       <c r="H32">
-        <v>0.001779700204012802</v>
+        <v>0.001430631273582244</v>
       </c>
     </row>
   </sheetData>

--- a/dis_model.xlsx
+++ b/dis_model.xlsx
@@ -522,22 +522,22 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>11.61260368958969</v>
+        <v>11.57389804402606</v>
       </c>
       <c r="D2">
-        <v>0.04250394951438174</v>
+        <v>0.04507965374644378</v>
       </c>
       <c r="E2">
-        <v>273.2123443178008</v>
+        <v>256.7432773358224</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>11.52918339279648</v>
+        <v>11.48542254615283</v>
       </c>
       <c r="H2">
-        <v>11.6960239863829</v>
+        <v>11.66237354189929</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -548,22 +548,22 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.1068663278366113</v>
+        <v>-0.1066556259052317</v>
       </c>
       <c r="D3">
-        <v>0.01167522650428014</v>
+        <v>0.01213666411511897</v>
       </c>
       <c r="E3">
-        <v>-9.153255210717676</v>
+        <v>-8.787886431854686</v>
       </c>
       <c r="F3">
-        <v>3.7342706572684E-19</v>
+        <v>7.811888321013099E-18</v>
       </c>
       <c r="G3">
-        <v>-0.1297806892369675</v>
+        <v>-0.1304756269670199</v>
       </c>
       <c r="H3">
-        <v>-0.08395196643625506</v>
+        <v>-0.08283562484344349</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -574,22 +574,22 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.04802493060300515</v>
+        <v>-0.02826705140175997</v>
       </c>
       <c r="D4">
-        <v>0.03452699751064092</v>
+        <v>0.03589215816579992</v>
       </c>
       <c r="E4">
-        <v>-1.390938513787777</v>
+        <v>-0.7875550773844082</v>
       </c>
       <c r="F4">
-        <v>0.1645936742278324</v>
+        <v>0.4311678685797878</v>
       </c>
       <c r="G4">
-        <v>-0.1157892775077941</v>
+        <v>-0.09871072830587629</v>
       </c>
       <c r="H4">
-        <v>0.01973941630178377</v>
+        <v>0.04217662550235635</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -600,22 +600,22 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.0870041181251226</v>
+        <v>-0.06250175781972461</v>
       </c>
       <c r="D5">
-        <v>0.04740692265037461</v>
+        <v>0.0492779942626755</v>
       </c>
       <c r="E5">
-        <v>-1.835261882885265</v>
+        <v>-1.26835027997609</v>
       </c>
       <c r="F5">
-        <v>0.06680233612724114</v>
+        <v>0.2050064258799572</v>
       </c>
       <c r="G5">
-        <v>-0.1800472259475857</v>
+        <v>-0.1592171208326538</v>
       </c>
       <c r="H5">
-        <v>0.006038989697340541</v>
+        <v>0.03421360519320461</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -626,22 +626,22 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>-0.468557947899672</v>
+        <v>-0.4660209343477763</v>
       </c>
       <c r="D6">
-        <v>0.0172771667856868</v>
+        <v>0.01793134540129178</v>
       </c>
       <c r="E6">
-        <v>-27.12006856864096</v>
+        <v>-25.98917838670399</v>
       </c>
       <c r="F6">
-        <v>2.250164363458681E-118</v>
+        <v>4.172776093639682E-111</v>
       </c>
       <c r="G6">
-        <v>-0.5024669468862289</v>
+        <v>-0.501213855767261</v>
       </c>
       <c r="H6">
-        <v>-0.4346489489131151</v>
+        <v>-0.4308280129282916</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -652,22 +652,22 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>-0.1826326294594487</v>
+        <v>-0.1775419995451727</v>
       </c>
       <c r="D7">
-        <v>0.01688228974400432</v>
+        <v>0.01751723666560902</v>
       </c>
       <c r="E7">
-        <v>-10.8180011259616</v>
+        <v>-10.13527435487212</v>
       </c>
       <c r="F7">
-        <v>1.05645752763857E-25</v>
+        <v>6.484706400076841E-23</v>
       </c>
       <c r="G7">
-        <v>-0.2157666237607861</v>
+        <v>-0.2119221712312795</v>
       </c>
       <c r="H7">
-        <v>-0.1494986351581112</v>
+        <v>-0.1431618278590659</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -678,22 +678,22 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>0.1655723347394298</v>
+        <v>0.1706589622229417</v>
       </c>
       <c r="D8">
-        <v>0.01801130028429716</v>
+        <v>0.01869542818822975</v>
       </c>
       <c r="E8">
-        <v>9.192691928176956</v>
+        <v>9.128379436122517</v>
       </c>
       <c r="F8">
-        <v>2.673475524549945E-19</v>
+        <v>4.607782566532904E-19</v>
       </c>
       <c r="G8">
-        <v>0.1302224900187795</v>
+        <v>0.133966415154801</v>
       </c>
       <c r="H8">
-        <v>0.2009221794600801</v>
+        <v>0.2073515092910824</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -704,22 +704,22 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>0.3327388992973054</v>
+        <v>0.3460848794459466</v>
       </c>
       <c r="D9">
-        <v>0.01822927010726626</v>
+        <v>0.01892640076844182</v>
       </c>
       <c r="E9">
-        <v>18.25300175703</v>
+        <v>18.28582643262072</v>
       </c>
       <c r="F9">
-        <v>2.017898405076415E-63</v>
+        <v>1.303828311396349E-63</v>
       </c>
       <c r="G9">
-        <v>0.296961256512433</v>
+        <v>0.308939014476469</v>
       </c>
       <c r="H9">
-        <v>0.3685165420821778</v>
+        <v>0.3832307444154241</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -730,22 +730,22 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>0.0129044238839188</v>
+        <v>-0.004446719843545416</v>
       </c>
       <c r="D10">
-        <v>0.01741155389458637</v>
+        <v>0.01811572442891308</v>
       </c>
       <c r="E10">
-        <v>0.7411414260924215</v>
+        <v>-0.245461883735014</v>
       </c>
       <c r="F10">
-        <v>0.4588042999443537</v>
+        <v>0.8061557270286634</v>
       </c>
       <c r="G10">
-        <v>-0.02126832970986096</v>
+        <v>-0.04000151241576631</v>
       </c>
       <c r="H10">
-        <v>0.04707717747769856</v>
+        <v>0.03110807272867547</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -756,22 +756,22 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>0.02565365561956511</v>
+        <v>0.007302827488936847</v>
       </c>
       <c r="D11">
-        <v>0.01772248699316997</v>
+        <v>0.01841243524636105</v>
       </c>
       <c r="E11">
-        <v>1.447520070374531</v>
+        <v>0.396624747961036</v>
       </c>
       <c r="F11">
-        <v>0.1481054509071895</v>
+        <v>0.691739817542135</v>
       </c>
       <c r="G11">
-        <v>-0.009129350236957913</v>
+        <v>-0.02883430401263204</v>
       </c>
       <c r="H11">
-        <v>0.06043666147608814</v>
+        <v>0.04343995899050573</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -782,22 +782,22 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>0.0469882581401617</v>
+        <v>0.04544613130721653</v>
       </c>
       <c r="D12">
-        <v>0.01750089526785623</v>
+        <v>0.01825091650664581</v>
       </c>
       <c r="E12">
-        <v>2.68490596743726</v>
+        <v>2.490073925365226</v>
       </c>
       <c r="F12">
-        <v>0.007390720452879381</v>
+        <v>0.01295415186710033</v>
       </c>
       <c r="G12">
-        <v>0.01264015886770418</v>
+        <v>0.009626004257202246</v>
       </c>
       <c r="H12">
-        <v>0.08133635741261921</v>
+        <v>0.08126625835723081</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -808,22 +808,22 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>0.03489466935012281</v>
+        <v>0.01979753703663528</v>
       </c>
       <c r="D13">
-        <v>0.01713132538299481</v>
+        <v>0.01780850833969509</v>
       </c>
       <c r="E13">
-        <v>2.036892567854706</v>
+        <v>1.11168979787637</v>
       </c>
       <c r="F13">
-        <v>0.04195795509743712</v>
+        <v>0.2665734537152775</v>
       </c>
       <c r="G13">
-        <v>0.001271905719016489</v>
+        <v>-0.01515429845430206</v>
       </c>
       <c r="H13">
-        <v>0.06851743298122913</v>
+        <v>0.05474937252757262</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -834,22 +834,22 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>-0.09294559155136201</v>
+        <v>-0.08713166264558293</v>
       </c>
       <c r="D14">
-        <v>0.06861871645074823</v>
+        <v>0.07123053340578861</v>
       </c>
       <c r="E14">
-        <v>-1.354522444588054</v>
+        <v>-1.223234734874274</v>
       </c>
       <c r="F14">
-        <v>0.1759154612992751</v>
+        <v>0.2215666568452722</v>
       </c>
       <c r="G14">
-        <v>-0.2276199866908985</v>
+        <v>-0.2269321354331576</v>
       </c>
       <c r="H14">
-        <v>0.04172880358817449</v>
+        <v>0.05266881014199172</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -860,22 +860,22 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>-0.02795822549496814</v>
+        <v>-0.02319768389348405</v>
       </c>
       <c r="D15">
-        <v>0.04401812722176658</v>
+        <v>0.04596432952298019</v>
       </c>
       <c r="E15">
-        <v>-0.6351525441805493</v>
+        <v>-0.5046888344555577</v>
       </c>
       <c r="F15">
-        <v>0.5254931081058811</v>
+        <v>0.6139030416936393</v>
       </c>
       <c r="G15">
-        <v>-0.1143503203255607</v>
+        <v>-0.1134094890202207</v>
       </c>
       <c r="H15">
-        <v>0.05843386933562439</v>
+        <v>0.06701412123325258</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -886,22 +886,22 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>-0.009708464917104372</v>
+        <v>-0.01340993042911374</v>
       </c>
       <c r="D16">
-        <v>0.04148534311961729</v>
+        <v>0.04340871234634348</v>
       </c>
       <c r="E16">
-        <v>-0.2340215648960971</v>
+        <v>-0.3089225573456414</v>
       </c>
       <c r="F16">
-        <v>0.8150223614279388</v>
+        <v>0.7574531453868714</v>
       </c>
       <c r="G16">
-        <v>-0.09112959578014995</v>
+        <v>-0.09860595829748685</v>
       </c>
       <c r="H16">
-        <v>0.07171266594594122</v>
+        <v>0.07178609743925936</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -912,22 +912,22 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>0.01084301794400373</v>
+        <v>0.001315621099709601</v>
       </c>
       <c r="D17">
-        <v>0.02056277004545776</v>
+        <v>0.0213845837986547</v>
       </c>
       <c r="E17">
-        <v>0.5273130964375545</v>
+        <v>0.06152194085686936</v>
       </c>
       <c r="F17">
-        <v>0.5981083406654331</v>
+        <v>0.9509574319206825</v>
       </c>
       <c r="G17">
-        <v>-0.02951446411780489</v>
+        <v>-0.04065479218340202</v>
       </c>
       <c r="H17">
-        <v>0.05120050000581235</v>
+        <v>0.04328603438282122</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -938,22 +938,22 @@
         <v>23</v>
       </c>
       <c r="C18">
-        <v>-0.06498736605638671</v>
+        <v>-0.0639339787520963</v>
       </c>
       <c r="D18">
-        <v>0.07245785496961739</v>
+        <v>0.07532239394686681</v>
       </c>
       <c r="E18">
-        <v>-0.8968988397964145</v>
+        <v>-0.8488043913898434</v>
       </c>
       <c r="F18">
-        <v>0.3700168079244094</v>
+        <v>0.3962196738827167</v>
       </c>
       <c r="G18">
-        <v>-0.207196639209223</v>
+        <v>-0.2117653339558493</v>
       </c>
       <c r="H18">
-        <v>0.07722190709644965</v>
+        <v>0.08389737645165671</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -964,22 +964,22 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>-0.2694894936026518</v>
+        <v>-0.3010573496734971</v>
       </c>
       <c r="D19">
-        <v>0.1937612790265176</v>
+        <v>0.2013789319405021</v>
       </c>
       <c r="E19">
-        <v>-1.390832548982969</v>
+        <v>-1.494979374319282</v>
       </c>
       <c r="F19">
-        <v>0.1646258018378033</v>
+        <v>0.135276297813438</v>
       </c>
       <c r="G19">
-        <v>-0.6497747044618338</v>
+        <v>-0.6962933327365012</v>
       </c>
       <c r="H19">
-        <v>0.1107957172565303</v>
+        <v>0.09417863338950694</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -990,22 +990,22 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>-0.01258219199560887</v>
+        <v>-0.06427308807355728</v>
       </c>
       <c r="D20">
-        <v>0.02144074276125131</v>
+        <v>0.02227053549889732</v>
       </c>
       <c r="E20">
-        <v>-0.5868356397777401</v>
+        <v>-2.88601448657306</v>
       </c>
       <c r="F20">
-        <v>0.5574637600303601</v>
+        <v>0.003996397776674821</v>
       </c>
       <c r="G20">
-        <v>-0.05466282556132795</v>
+        <v>-0.1079823127994428</v>
       </c>
       <c r="H20">
-        <v>0.02949844157011022</v>
+        <v>-0.02056386334767175</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1016,22 +1016,22 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>0.0315936306883336</v>
+        <v>-0.06254012411990473</v>
       </c>
       <c r="D21">
-        <v>0.02078022592144995</v>
+        <v>0.02167671692356911</v>
       </c>
       <c r="E21">
-        <v>1.520369932827426</v>
+        <v>-2.885128976884171</v>
       </c>
       <c r="F21">
-        <v>0.1287752015265597</v>
+        <v>0.00400754966092007</v>
       </c>
       <c r="G21">
-        <v>-0.009190640740626844</v>
+        <v>-0.1050838919326993</v>
       </c>
       <c r="H21">
-        <v>0.07237790211729406</v>
+        <v>-0.0199963563071101</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1042,22 +1042,22 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>-0.01316119509432882</v>
+        <v>0.0001413464189845889</v>
       </c>
       <c r="D22">
-        <v>0.01742339200228819</v>
+        <v>0.01810643135999771</v>
       </c>
       <c r="E22">
-        <v>-0.7553750206963361</v>
+        <v>0.007806420612339082</v>
       </c>
       <c r="F22">
-        <v>0.450224980821133</v>
+        <v>0.9937732000825565</v>
       </c>
       <c r="G22">
-        <v>-0.04735718272798579</v>
+        <v>-0.03539520712895979</v>
       </c>
       <c r="H22">
-        <v>0.02103479253932814</v>
+        <v>0.03567789996692897</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1068,22 +1068,22 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>0.03541967514512121</v>
+        <v>0.03256870856497427</v>
       </c>
       <c r="D23">
-        <v>0.03315629429027034</v>
+        <v>0.03438752773864176</v>
       </c>
       <c r="E23">
-        <v>1.068263987375545</v>
+        <v>0.9471081728383848</v>
       </c>
       <c r="F23">
-        <v>0.2856927457677853</v>
+        <v>0.3438421868425988</v>
       </c>
       <c r="G23">
-        <v>-0.0296544636551235</v>
+        <v>-0.03492190825339255</v>
       </c>
       <c r="H23">
-        <v>0.1004938139453659</v>
+        <v>0.1000593253833411</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1094,22 +1094,22 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>-0.4145750880016739</v>
+        <v>-0.4411317080467954</v>
       </c>
       <c r="D24">
-        <v>0.1935145026355204</v>
+        <v>0.2013572825008116</v>
       </c>
       <c r="E24">
-        <v>-2.142346347976385</v>
+        <v>-2.190790929277749</v>
       </c>
       <c r="F24">
-        <v>0.03243789607323951</v>
+        <v>0.02872707582616717</v>
       </c>
       <c r="G24">
-        <v>-0.7943759636399237</v>
+        <v>-0.836325200877597</v>
       </c>
       <c r="H24">
-        <v>-0.03477421236342404</v>
+        <v>-0.04593821521599367</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1120,22 +1120,22 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>0.04795059174073463</v>
+        <v>0.08476530763985252</v>
       </c>
       <c r="D25">
-        <v>0.04151338308506358</v>
+        <v>0.04326005483653547</v>
       </c>
       <c r="E25">
-        <v>1.155063456102356</v>
+        <v>1.959435972981329</v>
       </c>
       <c r="F25">
-        <v>0.2483762102828491</v>
+        <v>0.05037531975362387</v>
       </c>
       <c r="G25">
-        <v>-0.03352557170790185</v>
+        <v>-0.0001389578457206553</v>
       </c>
       <c r="H25">
-        <v>0.1294267551893711</v>
+        <v>0.1696695731254257</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1146,22 +1146,22 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>0.01163781714577029</v>
+        <v>0.006238747218462036</v>
       </c>
       <c r="D26">
-        <v>0.01930408159361601</v>
+        <v>0.02007691102391133</v>
       </c>
       <c r="E26">
-        <v>0.6028682115402469</v>
+        <v>0.3107423851722893</v>
       </c>
       <c r="F26">
-        <v>0.546750816195629</v>
+        <v>0.7560696430307267</v>
       </c>
       <c r="G26">
-        <v>-0.0262493023868503</v>
+        <v>-0.03316516454599458</v>
       </c>
       <c r="H26">
-        <v>0.04952493667839087</v>
+        <v>0.04564265898291865</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1172,22 +1172,22 @@
         <v>32</v>
       </c>
       <c r="C27">
-        <v>-0.01189157064393176</v>
+        <v>-0.02468518495718516</v>
       </c>
       <c r="D27">
-        <v>0.02380161855839573</v>
+        <v>0.02475025433786852</v>
       </c>
       <c r="E27">
-        <v>-0.4996118484445317</v>
+        <v>-0.9973709611305368</v>
       </c>
       <c r="F27">
-        <v>0.6174725975351696</v>
+        <v>0.3188570977865191</v>
       </c>
       <c r="G27">
-        <v>-0.05860577266481434</v>
+        <v>-0.07326122521137132</v>
       </c>
       <c r="H27">
-        <v>0.03482263137695082</v>
+        <v>0.023890855297001</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1198,22 +1198,22 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>0.03012174051157027</v>
+        <v>0.01038815281852187</v>
       </c>
       <c r="D28">
-        <v>0.02659375815076035</v>
+        <v>0.02765466420770451</v>
       </c>
       <c r="E28">
-        <v>1.132662045763135</v>
+        <v>0.3756383639483051</v>
       </c>
       <c r="F28">
-        <v>0.2576629731353143</v>
+        <v>0.7072757823814447</v>
       </c>
       <c r="G28">
-        <v>-0.02207244904327845</v>
+        <v>-0.04388822201913341</v>
       </c>
       <c r="H28">
-        <v>0.08231593006641899</v>
+        <v>0.06466452765617715</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1224,22 +1224,22 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>0.02847922183899273</v>
+        <v>-0.0007435822649333249</v>
       </c>
       <c r="D29">
-        <v>0.03010200668909187</v>
+        <v>0.03123481829690567</v>
       </c>
       <c r="E29">
-        <v>0.9460904760649332</v>
+        <v>-0.02380619787396007</v>
       </c>
       <c r="F29">
-        <v>0.3443606759264114</v>
+        <v>0.9810125627291334</v>
       </c>
       <c r="G29">
-        <v>-0.03060042512947696</v>
+        <v>-0.06204653981075652</v>
       </c>
       <c r="H29">
-        <v>0.08755886880746241</v>
+        <v>0.06055937528088987</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1250,22 +1250,22 @@
         <v>35</v>
       </c>
       <c r="C30">
-        <v>0.1046560361465026</v>
+        <v>0.2015204414078897</v>
       </c>
       <c r="D30">
-        <v>0.1014475205064922</v>
+        <v>0.1054191614967459</v>
       </c>
       <c r="E30">
-        <v>1.031627344108475</v>
+        <v>1.91161112028111</v>
       </c>
       <c r="F30">
-        <v>0.3025285625120444</v>
+        <v>0.05624880248664894</v>
       </c>
       <c r="G30">
-        <v>-0.09444974969873211</v>
+        <v>-0.005380278177583742</v>
       </c>
       <c r="H30">
-        <v>0.3037618219917373</v>
+        <v>0.4084211609933632</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1276,22 +1276,22 @@
         <v>36</v>
       </c>
       <c r="C31">
-        <v>-0.0008131036012209102</v>
+        <v>-0.0002348826233598996</v>
       </c>
       <c r="D31">
-        <v>0.0003774747046634899</v>
+        <v>0.0003968188840776608</v>
       </c>
       <c r="E31">
-        <v>-2.154061162709627</v>
+        <v>-0.5919139254318629</v>
       </c>
       <c r="F31">
-        <v>0.03150475056709354</v>
+        <v>0.554059404183413</v>
       </c>
       <c r="G31">
-        <v>-0.001553953622330221</v>
+        <v>-0.001013698461914135</v>
       </c>
       <c r="H31">
-        <v>-7.225358011159883E-05</v>
+        <v>0.0005439332151943361</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1302,22 +1302,22 @@
         <v>37</v>
       </c>
       <c r="C32">
-        <v>0.0001711349591420369</v>
+        <v>0.000470513975780205</v>
       </c>
       <c r="D32">
-        <v>0.0006417331251556005</v>
+        <v>0.0006670509155302993</v>
       </c>
       <c r="E32">
-        <v>0.2666762123282042</v>
+        <v>0.7053644104605579</v>
       </c>
       <c r="F32">
-        <v>0.7897805933264919</v>
+        <v>0.4807690936165021</v>
       </c>
       <c r="G32">
-        <v>-0.00108836135529817</v>
+        <v>-0.0008386722524523918</v>
       </c>
       <c r="H32">
-        <v>0.001430631273582244</v>
+        <v>0.001779700204012802</v>
       </c>
     </row>
   </sheetData>

--- a/dis_model.xlsx
+++ b/dis_model.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>CONTENT</t>
   </si>
@@ -91,22 +91,7 @@
     <t>FULL_TIME[T.Y]</t>
   </si>
   <si>
-    <t>ETHNICITY[T.Asian]</t>
-  </si>
-  <si>
-    <t>ETHNICITY[T.Black]</t>
-  </si>
-  <si>
-    <t>ETHNICITY[T.Hispanic]</t>
-  </si>
-  <si>
-    <t>ETHNICITY[T.Unknown]</t>
-  </si>
-  <si>
     <t>EXEMPT[T.Maybe]</t>
-  </si>
-  <si>
-    <t>PROMOTION[T.Yes]</t>
   </si>
   <si>
     <t>PERFORMANCE[T.2]</t>
@@ -485,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,22 +507,22 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>11.57389804402606</v>
+        <v>11.58972903278336</v>
       </c>
       <c r="D2">
-        <v>0.04507965374644378</v>
+        <v>0.04501696113567926</v>
       </c>
       <c r="E2">
-        <v>256.7432773358224</v>
+        <v>257.4524965790649</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>11.48542254615283</v>
+        <v>11.50137725818362</v>
       </c>
       <c r="H2">
-        <v>11.66237354189929</v>
+        <v>11.6780808073831</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -548,22 +533,22 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.1066556259052317</v>
+        <v>-0.1096725972594353</v>
       </c>
       <c r="D3">
-        <v>0.01213666411511897</v>
+        <v>0.01210988811105689</v>
       </c>
       <c r="E3">
-        <v>-8.787886431854686</v>
+        <v>-9.056450088857483</v>
       </c>
       <c r="F3">
-        <v>7.811888321013099E-18</v>
+        <v>8.357970463496486E-19</v>
       </c>
       <c r="G3">
-        <v>-0.1304756269670199</v>
+        <v>-0.1334398635924834</v>
       </c>
       <c r="H3">
-        <v>-0.08283562484344349</v>
+        <v>-0.08590533092638732</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -574,22 +559,22 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.02826705140175997</v>
+        <v>-0.03104700268526234</v>
       </c>
       <c r="D4">
-        <v>0.03589215816579992</v>
+        <v>0.03514434072194236</v>
       </c>
       <c r="E4">
-        <v>-0.7875550773844082</v>
+        <v>-0.8834140020125104</v>
       </c>
       <c r="F4">
-        <v>0.4311678685797878</v>
+        <v>0.3772511892797968</v>
       </c>
       <c r="G4">
-        <v>-0.09871072830587629</v>
+        <v>-0.1000224464199683</v>
       </c>
       <c r="H4">
-        <v>0.04217662550235635</v>
+        <v>0.03792844104944364</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -600,22 +585,22 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.06250175781972461</v>
+        <v>-0.04307726337218618</v>
       </c>
       <c r="D5">
-        <v>0.0492779942626755</v>
+        <v>0.04540115210493049</v>
       </c>
       <c r="E5">
-        <v>-1.26835027997609</v>
+        <v>-0.9488143224345196</v>
       </c>
       <c r="F5">
-        <v>0.2050064258799572</v>
+        <v>0.3429726156903153</v>
       </c>
       <c r="G5">
-        <v>-0.1592171208326538</v>
+        <v>-0.1321830638559969</v>
       </c>
       <c r="H5">
-        <v>0.03421360519320461</v>
+        <v>0.04602853711162454</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -626,22 +611,22 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>-0.4660209343477763</v>
+        <v>-0.4652289883147356</v>
       </c>
       <c r="D6">
-        <v>0.01793134540129178</v>
+        <v>0.01803518123105507</v>
       </c>
       <c r="E6">
-        <v>-25.98917838670399</v>
+        <v>-25.79563700272944</v>
       </c>
       <c r="F6">
-        <v>4.172776093639682E-111</v>
+        <v>5.221822461548609E-110</v>
       </c>
       <c r="G6">
-        <v>-0.501213855767261</v>
+        <v>-0.5006254306065434</v>
       </c>
       <c r="H6">
-        <v>-0.4308280129282916</v>
+        <v>-0.4298325460229278</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -652,22 +637,22 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>-0.1775419995451727</v>
+        <v>-0.1750214544586509</v>
       </c>
       <c r="D7">
-        <v>0.01751723666560902</v>
+        <v>0.01760143360291242</v>
       </c>
       <c r="E7">
-        <v>-10.13527435487212</v>
+        <v>-9.943590869194368</v>
       </c>
       <c r="F7">
-        <v>6.484706400076841E-23</v>
+        <v>3.66019606585362E-22</v>
       </c>
       <c r="G7">
-        <v>-0.2119221712312795</v>
+        <v>-0.2095666093310496</v>
       </c>
       <c r="H7">
-        <v>-0.1431618278590659</v>
+        <v>-0.1404762995862521</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -678,22 +663,22 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>0.1706589622229417</v>
+        <v>0.1688420543076797</v>
       </c>
       <c r="D8">
-        <v>0.01869542818822975</v>
+        <v>0.01875479958285618</v>
       </c>
       <c r="E8">
-        <v>9.128379436122517</v>
+        <v>9.002605096458549</v>
       </c>
       <c r="F8">
-        <v>4.607782566532904E-19</v>
+        <v>1.311731409039624E-18</v>
       </c>
       <c r="G8">
-        <v>0.133966415154801</v>
+        <v>0.1320332652733954</v>
       </c>
       <c r="H8">
-        <v>0.2073515092910824</v>
+        <v>0.205650843341964</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -704,22 +689,22 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>0.3460848794459466</v>
+        <v>0.344058936991699</v>
       </c>
       <c r="D9">
-        <v>0.01892640076844182</v>
+        <v>0.01895984048761959</v>
       </c>
       <c r="E9">
-        <v>18.28582643262072</v>
+        <v>18.1467210769185</v>
       </c>
       <c r="F9">
-        <v>1.303828311396349E-63</v>
+        <v>7.393836432187966E-63</v>
       </c>
       <c r="G9">
-        <v>0.308939014476469</v>
+        <v>0.3068477279062971</v>
       </c>
       <c r="H9">
-        <v>0.3832307444154241</v>
+        <v>0.381270146077101</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -730,22 +715,22 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>-0.004446719843545416</v>
+        <v>-0.003136906373139074</v>
       </c>
       <c r="D10">
-        <v>0.01811572442891308</v>
+        <v>0.01819716478081957</v>
       </c>
       <c r="E10">
-        <v>-0.245461883735014</v>
+        <v>-0.1723843472827965</v>
       </c>
       <c r="F10">
-        <v>0.8061557270286634</v>
+        <v>0.8631745683876564</v>
       </c>
       <c r="G10">
-        <v>-0.04000151241576631</v>
+        <v>-0.03885126292918441</v>
       </c>
       <c r="H10">
-        <v>0.03110807272867547</v>
+        <v>0.03257745018290627</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -756,22 +741,22 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>0.007302827488936847</v>
+        <v>0.008399781469259748</v>
       </c>
       <c r="D11">
-        <v>0.01841243524636105</v>
+        <v>0.01847100780786353</v>
       </c>
       <c r="E11">
-        <v>0.396624747961036</v>
+        <v>0.4547549086998798</v>
       </c>
       <c r="F11">
-        <v>0.691739817542135</v>
+        <v>0.6493964714889515</v>
       </c>
       <c r="G11">
-        <v>-0.02883430401263204</v>
+        <v>-0.02785202845526547</v>
       </c>
       <c r="H11">
-        <v>0.04343995899050573</v>
+        <v>0.04465159139378497</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -782,22 +767,22 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>0.04544613130721653</v>
+        <v>0.04379621305332081</v>
       </c>
       <c r="D12">
-        <v>0.01825091650664581</v>
+        <v>0.01826837867758931</v>
       </c>
       <c r="E12">
-        <v>2.490073925365226</v>
+        <v>2.397378214359423</v>
       </c>
       <c r="F12">
-        <v>0.01295415186710033</v>
+        <v>0.01671810265301439</v>
       </c>
       <c r="G12">
-        <v>0.009626004257202246</v>
+        <v>0.00794208975165251</v>
       </c>
       <c r="H12">
-        <v>0.08126625835723081</v>
+        <v>0.07965033635498911</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -808,22 +793,22 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>0.01979753703663528</v>
+        <v>0.02169080311044894</v>
       </c>
       <c r="D13">
-        <v>0.01780850833969509</v>
+        <v>0.0177946717364515</v>
       </c>
       <c r="E13">
-        <v>1.11168979787637</v>
+        <v>1.21894932548918</v>
       </c>
       <c r="F13">
-        <v>0.2665734537152775</v>
+        <v>0.2231864036039417</v>
       </c>
       <c r="G13">
-        <v>-0.01515429845430206</v>
+        <v>-0.01323360730447882</v>
       </c>
       <c r="H13">
-        <v>0.05474937252757262</v>
+        <v>0.0566152135253767</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -834,22 +819,22 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>-0.08713166264558293</v>
+        <v>-0.09681893777213219</v>
       </c>
       <c r="D14">
-        <v>0.07123053340578861</v>
+        <v>0.0716369052460762</v>
       </c>
       <c r="E14">
-        <v>-1.223234734874274</v>
+        <v>-1.35152317704896</v>
       </c>
       <c r="F14">
-        <v>0.2215666568452722</v>
+        <v>0.1768713099138691</v>
       </c>
       <c r="G14">
-        <v>-0.2269321354331576</v>
+        <v>-0.2374158938005081</v>
       </c>
       <c r="H14">
-        <v>0.05266881014199172</v>
+        <v>0.04377801825624378</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -860,22 +845,22 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>-0.02319768389348405</v>
+        <v>-0.02847704621403965</v>
       </c>
       <c r="D15">
-        <v>0.04596432952298019</v>
+        <v>0.04621896842803883</v>
       </c>
       <c r="E15">
-        <v>-0.5046888344555577</v>
+        <v>-0.6161333145800802</v>
       </c>
       <c r="F15">
-        <v>0.6139030416936393</v>
+        <v>0.5379640816724895</v>
       </c>
       <c r="G15">
-        <v>-0.1134094890202207</v>
+        <v>-0.11918792002178</v>
       </c>
       <c r="H15">
-        <v>0.06701412123325258</v>
+        <v>0.06223382759370073</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -886,22 +871,22 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>-0.01340993042911374</v>
+        <v>0.0337092803636866</v>
       </c>
       <c r="D16">
-        <v>0.04340871234634348</v>
+        <v>0.02479979243264841</v>
       </c>
       <c r="E16">
-        <v>-0.3089225573456414</v>
+        <v>1.359256552458441</v>
       </c>
       <c r="F16">
-        <v>0.7574531453868714</v>
+        <v>0.1744096149648914</v>
       </c>
       <c r="G16">
-        <v>-0.09860595829748685</v>
+        <v>-0.01496361127210753</v>
       </c>
       <c r="H16">
-        <v>0.07178609743925936</v>
+        <v>0.08238217199948074</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -912,22 +897,22 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>0.001315621099709601</v>
+        <v>-0.03289092002830204</v>
       </c>
       <c r="D17">
-        <v>0.0213845837986547</v>
+        <v>0.01915074958235044</v>
       </c>
       <c r="E17">
-        <v>0.06152194085686936</v>
+        <v>-1.717474289289162</v>
       </c>
       <c r="F17">
-        <v>0.9509574319206825</v>
+        <v>0.0862404161547811</v>
       </c>
       <c r="G17">
-        <v>-0.04065479218340202</v>
+        <v>-0.07047681360775204</v>
       </c>
       <c r="H17">
-        <v>0.04328603438282122</v>
+        <v>0.004694973551147966</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -938,22 +923,22 @@
         <v>23</v>
       </c>
       <c r="C18">
-        <v>-0.0639339787520963</v>
+        <v>-0.06834189155809031</v>
       </c>
       <c r="D18">
-        <v>0.07532239394686681</v>
+        <v>0.07581853181235203</v>
       </c>
       <c r="E18">
-        <v>-0.8488043913898434</v>
+        <v>-0.9013876940697544</v>
       </c>
       <c r="F18">
-        <v>0.3962196738827167</v>
+        <v>0.3676260786456015</v>
       </c>
       <c r="G18">
-        <v>-0.2117653339558493</v>
+        <v>-0.2171458459827011</v>
       </c>
       <c r="H18">
-        <v>0.08389737645165671</v>
+        <v>0.08046206286652044</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -964,22 +949,22 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>-0.3010573496734971</v>
+        <v>-0.2173097947100845</v>
       </c>
       <c r="D19">
-        <v>0.2013789319405021</v>
+        <v>0.1976492881149535</v>
       </c>
       <c r="E19">
-        <v>-1.494979374319282</v>
+        <v>-1.099471679269072</v>
       </c>
       <c r="F19">
-        <v>0.135276297813438</v>
+        <v>0.2718596931373698</v>
       </c>
       <c r="G19">
-        <v>-0.6962933327365012</v>
+        <v>-0.6052228148870697</v>
       </c>
       <c r="H19">
-        <v>0.09417863338950694</v>
+        <v>0.1706032254669006</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -990,22 +975,22 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>-0.06427308807355728</v>
+        <v>-0.3537071169468809</v>
       </c>
       <c r="D20">
-        <v>0.02227053549889732</v>
+        <v>0.1977838678759088</v>
       </c>
       <c r="E20">
-        <v>-2.88601448657306</v>
+        <v>-1.788351703025646</v>
       </c>
       <c r="F20">
-        <v>0.003996397776674821</v>
+        <v>0.07405934798414458</v>
       </c>
       <c r="G20">
-        <v>-0.1079823127994428</v>
+        <v>-0.7418842678071826</v>
       </c>
       <c r="H20">
-        <v>-0.02056386334767175</v>
+        <v>0.03447003391342085</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1016,22 +1001,22 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>-0.06254012411990473</v>
+        <v>-0.005144144667034199</v>
       </c>
       <c r="D21">
-        <v>0.02167671692356911</v>
+        <v>0.01973307919638264</v>
       </c>
       <c r="E21">
-        <v>-2.885128976884171</v>
+        <v>-0.2606863640408029</v>
       </c>
       <c r="F21">
-        <v>0.00400754966092007</v>
+        <v>0.7943946858112823</v>
       </c>
       <c r="G21">
-        <v>-0.1050838919326993</v>
+        <v>-0.04387293757828624</v>
       </c>
       <c r="H21">
-        <v>-0.0199963563071101</v>
+        <v>0.03358464824421784</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1042,22 +1027,22 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>0.0001413464189845889</v>
+        <v>-0.04025133682008053</v>
       </c>
       <c r="D22">
-        <v>0.01810643135999771</v>
+        <v>0.02442676460617193</v>
       </c>
       <c r="E22">
-        <v>0.007806420612339082</v>
+        <v>-1.647837422149235</v>
       </c>
       <c r="F22">
-        <v>0.9937732000825565</v>
+        <v>0.09973899864602756</v>
       </c>
       <c r="G22">
-        <v>-0.03539520712895979</v>
+        <v>-0.08819211172447319</v>
       </c>
       <c r="H22">
-        <v>0.03567789996692897</v>
+        <v>0.007689438084312127</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1068,22 +1053,22 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>0.03256870856497427</v>
+        <v>0.0007532756998103671</v>
       </c>
       <c r="D23">
-        <v>0.03438752773864176</v>
+        <v>0.02691420997168799</v>
       </c>
       <c r="E23">
-        <v>0.9471081728383848</v>
+        <v>0.02798802939424061</v>
       </c>
       <c r="F23">
-        <v>0.3438421868425988</v>
+        <v>0.9776779729536752</v>
       </c>
       <c r="G23">
-        <v>-0.03492190825339255</v>
+        <v>-0.05206944162625893</v>
       </c>
       <c r="H23">
-        <v>0.1000593253833411</v>
+        <v>0.05357599302587966</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1094,22 +1079,22 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>-0.4411317080467954</v>
+        <v>-0.006689743285785935</v>
       </c>
       <c r="D24">
-        <v>0.2013572825008116</v>
+        <v>0.03018532979073134</v>
       </c>
       <c r="E24">
-        <v>-2.190790929277749</v>
+        <v>-0.2216223354909337</v>
       </c>
       <c r="F24">
-        <v>0.02872707582616717</v>
+        <v>0.8246587328056639</v>
       </c>
       <c r="G24">
-        <v>-0.836325200877597</v>
+        <v>-0.06593246839669428</v>
       </c>
       <c r="H24">
-        <v>-0.04593821521599367</v>
+        <v>0.05255298182512241</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1120,22 +1105,22 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>0.08476530763985252</v>
+        <v>0.150843796220845</v>
       </c>
       <c r="D25">
-        <v>0.04326005483653547</v>
+        <v>0.1047492300390681</v>
       </c>
       <c r="E25">
-        <v>1.959435972981329</v>
+        <v>1.440046825781776</v>
       </c>
       <c r="F25">
-        <v>0.05037531975362387</v>
+        <v>0.1502058064186837</v>
       </c>
       <c r="G25">
-        <v>-0.0001389578457206553</v>
+        <v>-0.05474050197321698</v>
       </c>
       <c r="H25">
-        <v>0.1696695731254257</v>
+        <v>0.3564280944149069</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1146,22 +1131,22 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>0.006238747218462036</v>
+        <v>-0.0002691438523706398</v>
       </c>
       <c r="D26">
-        <v>0.02007691102391133</v>
+        <v>0.0003960663417920102</v>
       </c>
       <c r="E26">
-        <v>0.3107423851722893</v>
+        <v>-0.6795423492763688</v>
       </c>
       <c r="F26">
-        <v>0.7560696430307267</v>
+        <v>0.4969709786766824</v>
       </c>
       <c r="G26">
-        <v>-0.03316516454599458</v>
+        <v>-0.001046476734772076</v>
       </c>
       <c r="H26">
-        <v>0.04564265898291865</v>
+        <v>0.0005081890300307962</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1172,152 +1157,22 @@
         <v>32</v>
       </c>
       <c r="C27">
-        <v>-0.02468518495718516</v>
+        <v>0.0003217431215121768</v>
       </c>
       <c r="D27">
-        <v>0.02475025433786852</v>
+        <v>0.0006706639847704292</v>
       </c>
       <c r="E27">
-        <v>-0.9973709611305368</v>
+        <v>0.4797381830818166</v>
       </c>
       <c r="F27">
-        <v>0.3188570977865191</v>
+        <v>0.6315314431350589</v>
       </c>
       <c r="G27">
-        <v>-0.07326122521137132</v>
+        <v>-0.0009945241635231185</v>
       </c>
       <c r="H27">
-        <v>0.023890855297001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28">
-        <v>0.01038815281852187</v>
-      </c>
-      <c r="D28">
-        <v>0.02765466420770451</v>
-      </c>
-      <c r="E28">
-        <v>0.3756383639483051</v>
-      </c>
-      <c r="F28">
-        <v>0.7072757823814447</v>
-      </c>
-      <c r="G28">
-        <v>-0.04388822201913341</v>
-      </c>
-      <c r="H28">
-        <v>0.06466452765617715</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29">
-        <v>-0.0007435822649333249</v>
-      </c>
-      <c r="D29">
-        <v>0.03123481829690567</v>
-      </c>
-      <c r="E29">
-        <v>-0.02380619787396007</v>
-      </c>
-      <c r="F29">
-        <v>0.9810125627291334</v>
-      </c>
-      <c r="G29">
-        <v>-0.06204653981075652</v>
-      </c>
-      <c r="H29">
-        <v>0.06055937528088987</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30">
-        <v>0.2015204414078897</v>
-      </c>
-      <c r="D30">
-        <v>0.1054191614967459</v>
-      </c>
-      <c r="E30">
-        <v>1.91161112028111</v>
-      </c>
-      <c r="F30">
-        <v>0.05624880248664894</v>
-      </c>
-      <c r="G30">
-        <v>-0.005380278177583742</v>
-      </c>
-      <c r="H30">
-        <v>0.4084211609933632</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31">
-        <v>-0.0002348826233598996</v>
-      </c>
-      <c r="D31">
-        <v>0.0003968188840776608</v>
-      </c>
-      <c r="E31">
-        <v>-0.5919139254318629</v>
-      </c>
-      <c r="F31">
-        <v>0.554059404183413</v>
-      </c>
-      <c r="G31">
-        <v>-0.001013698461914135</v>
-      </c>
-      <c r="H31">
-        <v>0.0005439332151943361</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32">
-        <v>0.000470513975780205</v>
-      </c>
-      <c r="D32">
-        <v>0.0006670509155302993</v>
-      </c>
-      <c r="E32">
-        <v>0.7053644104605579</v>
-      </c>
-      <c r="F32">
-        <v>0.4807690936165021</v>
-      </c>
-      <c r="G32">
-        <v>-0.0008386722524523918</v>
-      </c>
-      <c r="H32">
-        <v>0.001779700204012802</v>
+        <v>0.001638010406547472</v>
       </c>
     </row>
   </sheetData>
